--- a/Vocabularies/UT/ut-udwq-g.xlsx
+++ b/Vocabularies/UT/ut-udwq-g.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\Completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85595259-B00E-4FD9-BAD1-38A339074992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380E50D3-51FA-450F-8A60-3F1B4AD8DB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
   <si>
     <t>Term</t>
   </si>
@@ -417,7 +417,13 @@
     <t>Utah Division of Water Quality</t>
   </si>
   <si>
-    <t>https://deq.utah.gov/division-water-quality</t>
+    <t>UT-DWQ</t>
+  </si>
+  <si>
+    <t>Glossary of terms concerning water allocation.</t>
+  </si>
+  <si>
+    <t>ut-dwq-g</t>
   </si>
 </sst>
 </file>
@@ -820,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,17 +1419,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
     <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="123" bestFit="1" customWidth="1"/>
   </cols>
@@ -1458,13 +1465,19 @@
       <c r="A2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>125</v>
       </c>
       <c r="G2" t="s">
@@ -1526,9 +1539,9 @@
     <sortCondition ref="G1:G9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{43D57D85-5AFC-4240-955F-167761890578}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{2CBD89C9-9202-4968-A216-02849A1D4843}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{43D57D85-5AFC-4240-955F-167761890578}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Vocabularies/UT/ut-udwq-g.xlsx
+++ b/Vocabularies/UT/ut-udwq-g.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryjam\Documents\WSWC Documents\Glossary Project\Completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/UT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380E50D3-51FA-450F-8A60-3F1B4AD8DB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97480736-4A7C-9D4B-9CF7-580DAD8EECF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30960" windowHeight="16920" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
     <sheet name="Vocabulary Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vocabulary!$A$1:$I$47</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,12 +93,6 @@
     <t>Water use</t>
   </si>
   <si>
-    <t>Legal &amp; Regulatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data </t>
-  </si>
-  <si>
     <t>Utilities (Water, Wastewater, Stormwater)</t>
   </si>
   <si>
@@ -424,6 +421,12 @@
   </si>
   <si>
     <t>ut-dwq-g</t>
+  </si>
+  <si>
+    <t>Legal and Regulatory</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -826,20 +829,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="11.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,540 +868,545 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I47" xr:uid="{064189A1-E700-3647-948A-1DEF246D526E}">
+    <sortState ref="A2:I47">
+      <sortCondition ref="D1:D47"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1419,23 +1427,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="123" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1458,80 +1466,80 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabularies/UT/ut-udwq-g.xlsx
+++ b/Vocabularies/UT/ut-udwq-g.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/UT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97480736-4A7C-9D4B-9CF7-580DAD8EECF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D331E7-21D6-3042-B7CD-255EFFE32BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30960" windowHeight="16920" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
   <si>
     <t>Term</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Publishing Agency URI</t>
   </si>
   <si>
-    <t>Water use</t>
-  </si>
-  <si>
-    <t>Utilities (Water, Wastewater, Stormwater)</t>
-  </si>
-  <si>
     <t>ThemeDef</t>
   </si>
   <si>
@@ -427,6 +421,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Utilities</t>
   </si>
 </sst>
 </file>
@@ -829,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -868,54 +865,54 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -923,10 +920,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -934,10 +931,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -945,10 +942,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -956,10 +953,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -967,10 +964,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -978,10 +975,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -989,10 +986,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -1000,10 +997,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1011,10 +1008,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1022,10 +1019,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -1033,24 +1030,24 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -1058,24 +1055,24 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>16</v>
@@ -1083,10 +1080,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
@@ -1094,38 +1091,38 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -1133,142 +1130,142 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
@@ -1276,10 +1273,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
@@ -1287,10 +1284,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>12</v>
@@ -1298,10 +1295,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>12</v>
@@ -1309,10 +1306,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>12</v>
@@ -1320,10 +1317,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -1331,10 +1328,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>
@@ -1342,24 +1339,24 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>12</v>
@@ -1367,35 +1364,35 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>11</v>
@@ -1415,7 +1412,7 @@
           <x14:formula1>
             <xm:f>'Vocabulary Metadata'!$G$2:$G$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:H6138</xm:sqref>
+          <xm:sqref>D2:H44 E45:H45 D46:H6138</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1428,7 +1425,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1466,38 +1463,38 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1505,15 +1502,15 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1523,10 +1520,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1536,10 +1533,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
